--- a/data/trans_dic/P0902-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P0902-Provincia-trans_dic.xlsx
@@ -661,7 +661,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,28%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>8,21%</t>
+          <t>7,79%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,38%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>11,5%</t>
+          <t>11,21%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,24%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>9,89%</t>
+          <t>9,44%</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,57; 17,75</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,42; 11,85</t>
+          <t>5,13; 11,39</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>22,18; 33,04</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>8,98; 14,58</t>
+          <t>8,63; 14,25</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,36; 23,8</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>8,02; 12,18</t>
+          <t>7,58; 11,74</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>17,89%</t>
+          <t>17,07%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>24,59%</t>
+          <t>24,39%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>21,35%</t>
+          <t>20,72%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>14,51; 21,96</t>
+          <t>13,79; 21,07</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>21,4; 27,86</t>
+          <t>21,27; 27,71</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>18,92; 24,17</t>
+          <t>18,36; 23,51</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>13,67%</t>
+          <t>13,35%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>17,72%</t>
+          <t>17,65%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>15,84%</t>
+          <t>15,6%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>10,62; 17,65</t>
+          <t>10,31; 17,19</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>14,57; 21,18</t>
+          <t>14,55; 21,25</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>13,52; 18,2</t>
+          <t>13,24; 17,91</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>14,31%</t>
+          <t>15,13%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>18,34%</t>
+          <t>17,94%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>30,12%</t>
+          <t>32,14%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>24,21%</t>
+          <t>20,11%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>22,26%</t>
+          <t>23,8%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>21,7%</t>
+          <t>19,25%</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,69; 17,66</t>
+          <t>11,76; 19,46</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>14,02; 24,13</t>
+          <t>13,64; 23,6</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>26,73; 33,47</t>
+          <t>27,5; 37,2</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>20,06; 28,74</t>
+          <t>12,14; 25,58</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>19,99; 24,44</t>
+          <t>20,74; 26,78</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>18,55; 25,1</t>
+          <t>13,98; 22,97</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>6,87%</t>
+          <t>6,89%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>12,03%</t>
+          <t>12,1%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>9,66%</t>
+          <t>9,69%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,58; 10,49</t>
+          <t>4,62; 10,53</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>9,42; 15,18</t>
+          <t>9,5; 15,21</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>7,8; 11,71</t>
+          <t>7,88; 11,78</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>11,32%</t>
+          <t>11,09%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>15,47%</t>
+          <t>15,49%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>13,39%</t>
+          <t>13,24%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>8,33; 14,71</t>
+          <t>8,11; 14,43</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>12,41; 18,8</t>
+          <t>12,43; 18,84</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>11,21; 15,67</t>
+          <t>11,07; 15,52</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>12,92%</t>
+          <t>12,44%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>18,73%</t>
+          <t>16,32%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>16,18%</t>
+          <t>14,68%</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>10,56; 15,72</t>
+          <t>10,12; 15,24</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>11,48; 22,72</t>
+          <t>7,73; 22,33</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>12,54; 18,47</t>
+          <t>9,29; 17,69</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>10,76%</t>
+          <t>8,5%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>20,21%</t>
+          <t>20,17%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>15,51%</t>
+          <t>13,59%</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>8,64; 13,44</t>
+          <t>3,71; 12,06</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>17,88; 23,41</t>
+          <t>17,87; 23,08</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>13,57; 17,38</t>
+          <t>8,31; 16,55</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>12,88%</t>
+          <t>11,85%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>19,28%</t>
+          <t>18,13%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>16,27%</t>
+          <t>15,08%</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>11,71; 14,14</t>
+          <t>9,3; 13,29</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>17,36; 20,57</t>
+          <t>15,03; 19,84</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>15,14; 17,15</t>
+          <t>13,08; 16,3</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P0902-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P0902-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +725,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,69; 12,62</t>
+          <t>5,69; 13,09</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>9,57; 17,75</t>
+          <t>9,61; 17,65</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,26; 15,05</t>
+          <t>7,28; 15,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,13; 11,39</t>
+          <t>4,96; 11,3</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>9,67; 18,34</t>
+          <t>9,58; 18,33</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>22,18; 33,04</t>
+          <t>21,89; 32,78</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>19,62; 30,17</t>
+          <t>19,68; 30,44</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>8,63; 14,25</t>
+          <t>8,8; 14,36</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>8,42; 13,89</t>
+          <t>8,44; 14,11</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>16,36; 23,8</t>
+          <t>17,0; 23,84</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>14,32; 20,98</t>
+          <t>14,5; 21,5</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>7,58; 11,74</t>
+          <t>7,43; 11,76</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +865,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,83; 12,31</t>
+          <t>6,93; 12,42</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,86; 14,03</t>
+          <t>7,89; 14,19</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,08; 11,18</t>
+          <t>6,16; 11,03</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>13,79; 21,07</t>
+          <t>13,91; 21,02</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>13,36; 19,45</t>
+          <t>13,27; 19,94</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>14,85; 22,27</t>
+          <t>15,24; 22,06</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,92; 18,76</t>
+          <t>11,68; 18,59</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>21,27; 27,71</t>
+          <t>21,25; 27,45</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>10,89; 14,99</t>
+          <t>10,76; 14,95</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>12,33; 16,94</t>
+          <t>11,91; 16,83</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>9,78; 13,74</t>
+          <t>9,66; 14,01</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>18,36; 23,51</t>
+          <t>18,46; 23,44</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,72; 7,82</t>
+          <t>2,89; 7,55</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,41; 15,84</t>
+          <t>8,34; 16,03</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,92; 10,8</t>
+          <t>4,91; 10,34</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>10,31; 17,19</t>
+          <t>10,17; 17,22</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>8,41; 15,98</t>
+          <t>8,72; 15,59</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>13,08; 21,79</t>
+          <t>13,22; 21,75</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,87; 14,95</t>
+          <t>7,45; 14,54</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>14,55; 21,25</t>
+          <t>14,43; 21,28</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,46; 10,65</t>
+          <t>6,42; 10,69</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>11,63; 17,43</t>
+          <t>11,83; 17,71</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>7,03; 11,96</t>
+          <t>7,17; 11,88</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>13,24; 17,91</t>
+          <t>13,38; 18,02</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,29; 6,4</t>
+          <t>2,26; 6,52</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,76; 19,46</t>
+          <t>11,53; 19,88</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>13,01; 20,89</t>
+          <t>12,82; 20,67</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>13,64; 23,6</t>
+          <t>13,71; 22,98</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>11,19; 18,37</t>
+          <t>10,91; 18,28</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>27,5; 37,2</t>
+          <t>27,41; 36,98</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>25,36; 35,53</t>
+          <t>25,09; 34,85</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>12,14; 25,58</t>
+          <t>12,35; 25,91</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>7,2; 11,49</t>
+          <t>7,04; 11,24</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>20,74; 26,78</t>
+          <t>20,67; 26,69</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>20,39; 26,76</t>
+          <t>19,99; 26,81</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>13,98; 22,97</t>
+          <t>13,84; 23,29</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1285,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,49; 11,46</t>
+          <t>4,43; 11,77</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,83; 16,67</t>
+          <t>7,67; 16,24</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,45; 12,04</t>
+          <t>4,5; 12,07</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,62; 10,53</t>
+          <t>4,4; 10,63</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,22; 16,73</t>
+          <t>7,62; 16,56</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>21,55; 33,15</t>
+          <t>20,83; 33,09</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>9,4; 18,42</t>
+          <t>9,35; 18,43</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>9,5; 15,21</t>
+          <t>9,13; 15,07</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6,67; 12,3</t>
+          <t>6,81; 12,62</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>15,83; 23,23</t>
+          <t>15,96; 23,49</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>8,29; 13,95</t>
+          <t>8,2; 14,2</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>7,88; 11,78</t>
+          <t>7,68; 11,94</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,69 +1425,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>5,58; 12,1</t>
+          <t>5,34; 11,66</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>9,44; 17,33</t>
+          <t>8,99; 16,87</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>10,42; 18,76</t>
+          <t>10,4; 19,07</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>8,11; 14,43</t>
+          <t>8,09; 14,41</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>12,52; 21,23</t>
+          <t>12,3; 21,33</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>12,4; 21,2</t>
+          <t>12,26; 21,36</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>16,46; 26,65</t>
+          <t>15,69; 26,47</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>12,43; 18,84</t>
+          <t>12,55; 18,73</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>9,91; 15,59</t>
+          <t>9,89; 15,33</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>11,67; 17,95</t>
+          <t>11,66; 18,07</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>14,29; 21,25</t>
+          <t>14,43; 21,19</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>11,07; 15,52</t>
+          <t>11,11; 15,54</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>7,0; 11,83</t>
+          <t>7,08; 11,77</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>5,43; 9,56</t>
+          <t>5,37; 9,52</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,49; 11,16</t>
+          <t>6,53; 11,37</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>10,12; 15,24</t>
+          <t>10,01; 15,28</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>10,85; 16,02</t>
+          <t>10,67; 16,1</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>12,47; 17,83</t>
+          <t>12,64; 18,17</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>16,02; 22,33</t>
+          <t>15,71; 22,46</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>7,73; 22,33</t>
+          <t>8,51; 22,06</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>9,56; 13,05</t>
+          <t>9,82; 13,44</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>9,34; 13,21</t>
+          <t>9,53; 13,36</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>12,08; 15,99</t>
+          <t>12,07; 16,03</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>9,29; 17,69</t>
+          <t>8,85; 17,71</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>8,12; 12,39</t>
+          <t>8,31; 12,41</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>8,06; 13,02</t>
+          <t>8,41; 13,21</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>4,41; 7,76</t>
+          <t>4,31; 7,73</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>3,71; 12,06</t>
+          <t>3,58; 12,33</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>13,87; 19,3</t>
+          <t>13,58; 19,04</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>14,74; 20,03</t>
+          <t>14,51; 19,83</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>10,04; 15,32</t>
+          <t>10,46; 15,73</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>17,87; 23,08</t>
+          <t>17,9; 22,88</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>11,71; 15,17</t>
+          <t>11,86; 15,18</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>12,25; 15,83</t>
+          <t>12,38; 15,93</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>7,99; 11,13</t>
+          <t>8,15; 11,25</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>8,31; 16,55</t>
+          <t>8,06; 16,48</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>7,31; 9,16</t>
+          <t>7,29; 9,22</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>9,89; 12,18</t>
+          <t>9,97; 12,19</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>8,32; 10,32</t>
+          <t>8,28; 10,28</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>9,3; 13,29</t>
+          <t>9,29; 13,33</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>13,43; 15,85</t>
+          <t>13,37; 15,84</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>18,55; 21,26</t>
+          <t>18,73; 21,28</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>16,32; 19,18</t>
+          <t>16,5; 19,19</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>15,03; 19,84</t>
+          <t>14,43; 19,78</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>10,71; 12,25</t>
+          <t>10,73; 12,26</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>14,69; 16,43</t>
+          <t>14,61; 16,43</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>12,64; 14,46</t>
+          <t>12,75; 14,44</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>13,08; 16,3</t>
+          <t>13,06; 16,21</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que dejó de hacer algunas tareas por problemas físicos</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>23592</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>39127</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>30947</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>24272</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>35144</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>78659</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>71582</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>32456</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>58736</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>117786</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>102529</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>56728</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>15537; 35728</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>28337; 52026</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>21397; 44061</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>15441; 35206</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>24976; 47822</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>62864; 94164</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>56815; 87882</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>25481; 41585</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>45050; 75342</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>98947; 138724</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>84431; 125228</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>44635; 70673</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>45817</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>53692</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>42060</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>88501</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>82405</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>96265</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>78214</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>125597</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>128222</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>149957</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>120273</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>214098</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>34146; 61254</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>39863; 71718</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>30977; 55438</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>72125; 108983</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>66889; 100470</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>79825; 115528</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>61109; 97222</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>109432; 141337</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>107259; 149020</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>122604; 173244</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>99029; 143695</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>190781; 242220</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>14996</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>37764</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>23660</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>42193</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>39841</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>58563</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>36612</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>61508</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>54836</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>96327</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>60271</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>103701</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>9205; 24074</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>27019; 51937</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>15626; 32948</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>32141; 54412</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>29242; 52302</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>45097; 74158</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>25055; 48901</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>50271; 74165</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>42011; 69936</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>78700; 117761</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>46942; 77816</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>88935; 119772</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>239</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>13348</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>56567</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>61678</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>55976</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>52930</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>125005</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>116480</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>95666</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>66279</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>181573</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>178158</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>151642</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>8098; 23373</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>43106; 74340</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>47441; 76472</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>42759; 71709</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>40510; 67914</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>106622; 143846</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>97170; 134966</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>58746; 123239</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>51389; 82094</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>157678; 203608</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>151389; 203040</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>108982; 183462</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>14918</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>24565</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>16549</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>12282</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>23887</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>58982</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>30213</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>25124</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>38805</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>83547</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>46762</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>37406</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>9014; 23930</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>16300; 34520</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>9502; 25489</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>7845; 18942</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>15827; 34398</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>45744; 72657</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>20439; 40282</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>18971; 31291</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>27974; 51873</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>68993; 101508</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>35252; 61025</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>29655; 46092</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>22124</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>35123</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>36532</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>29907</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>45795</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>46720</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>57455</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>39821</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>67919</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>81843</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>93988</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>69728</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>14466; 31584</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>24635; 46218</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>27370; 50178</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>21820; 38854</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>34214; 59326</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>34321; 59828</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>42841; 72302</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>32266; 48155</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>54275; 84177</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>64590; 100088</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>77380; 113609</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>58530; 81873</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>326</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>57078</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>47961</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>56169</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>77458</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>85380</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>104693</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>131397</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>138579</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>142457</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>152654</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>187565</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>216037</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>43554; 72363</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>35564; 63022</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>42857; 74666</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>62288; 95132</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>68095; 102759</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>87431; 125756</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>108621; 155281</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>72311; 187306</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>123108; 168490</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>128999; 180925</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>162751; 215997</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>130272; 260616</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>236</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>336</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>75565</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>81722</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>46258</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>78915</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>128287</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>141275</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>105603</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>144776</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>203851</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>222996</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>151861</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>223691</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>61776; 92301</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>65534; 102914</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>33572; 60217</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>33282; 114480</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>106390; 149148</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>119251; 162984</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>86454; 129966</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>128496; 164187</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>181156; 231784</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>198228; 254977</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>130737; 180614</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>132669; 271383</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>343</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>307</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>487</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>474</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>659</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>540</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>1196</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>745</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>1002</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>847</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>1683</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>267438</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>376521</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>313851</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>409505</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>493667</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>710163</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>627556</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>663528</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>761106</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>1086684</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>941407</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>1073033</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>238988; 302230</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>341647; 417602</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>281101; 349067</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>321017; 460924</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>451936; 535285</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>665859; 756351</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>584959; 680069</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>528351; 724086</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>713886; 816233</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>1019635; 1146997</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>884783; 1002133</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>929269; 1153476</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>